--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Nrcam</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.009849666666666668</v>
+        <v>0.2862826666666667</v>
       </c>
       <c r="H2">
-        <v>0.029549</v>
+        <v>0.8588480000000001</v>
       </c>
       <c r="I2">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="J2">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02986833333333333</v>
+        <v>0.008656666666666667</v>
       </c>
       <c r="N2">
-        <v>0.08960499999999999</v>
+        <v>0.02597</v>
       </c>
       <c r="O2">
-        <v>0.02366079079139609</v>
+        <v>0.006895973038524511</v>
       </c>
       <c r="P2">
-        <v>0.02366079079139609</v>
+        <v>0.006895973038524512</v>
       </c>
       <c r="Q2">
-        <v>0.0002941931272222222</v>
+        <v>0.002478253617777778</v>
       </c>
       <c r="R2">
-        <v>0.002647738145</v>
+        <v>0.02230428256</v>
       </c>
       <c r="S2">
-        <v>0.0007801824570881369</v>
+        <v>0.003866608596428804</v>
       </c>
       <c r="T2">
-        <v>0.0007801824570881369</v>
+        <v>0.003866608596428805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.009849666666666668</v>
+        <v>0.2862826666666667</v>
       </c>
       <c r="H3">
-        <v>0.029549</v>
+        <v>0.8588480000000001</v>
       </c>
       <c r="I3">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="J3">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>0.386134</v>
       </c>
       <c r="O3">
-        <v>0.1019612275145911</v>
+        <v>0.1025325241916682</v>
       </c>
       <c r="P3">
-        <v>0.1019612275145911</v>
+        <v>0.1025325241916682</v>
       </c>
       <c r="Q3">
-        <v>0.001267763729555556</v>
+        <v>0.03684782373688889</v>
       </c>
       <c r="R3">
-        <v>0.011409873566</v>
+        <v>0.331630413632</v>
       </c>
       <c r="S3">
-        <v>0.003362033066070762</v>
+        <v>0.05749052921730612</v>
       </c>
       <c r="T3">
-        <v>0.003362033066070763</v>
+        <v>0.05749052921730612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.009849666666666668</v>
+        <v>0.2862826666666667</v>
       </c>
       <c r="H4">
-        <v>0.029549</v>
+        <v>0.8588480000000001</v>
       </c>
       <c r="I4">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="J4">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.103776</v>
+        <v>1.089774666666667</v>
       </c>
       <c r="N4">
-        <v>3.311328</v>
+        <v>3.269324</v>
       </c>
       <c r="O4">
-        <v>0.8743779816940129</v>
+        <v>0.8681236102503316</v>
       </c>
       <c r="P4">
-        <v>0.8743779816940128</v>
+        <v>0.8681236102503316</v>
       </c>
       <c r="Q4">
-        <v>0.01087182567466667</v>
+        <v>0.3119835976391112</v>
       </c>
       <c r="R4">
-        <v>0.09784643107200001</v>
+        <v>2.807852378752</v>
       </c>
       <c r="S4">
-        <v>0.02883142698805587</v>
+        <v>0.4867615049253372</v>
       </c>
       <c r="T4">
-        <v>0.02883142698805587</v>
+        <v>0.4867615049253372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1092446666666667</v>
+        <v>0.2862826666666667</v>
       </c>
       <c r="H5">
-        <v>0.327734</v>
+        <v>0.8588480000000001</v>
       </c>
       <c r="I5">
-        <v>0.3657174102260808</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="J5">
-        <v>0.3657174102260808</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02986833333333333</v>
+        <v>0.02817933333333333</v>
       </c>
       <c r="N5">
-        <v>0.08960499999999999</v>
+        <v>0.084538</v>
       </c>
       <c r="O5">
-        <v>0.02366079079139609</v>
+        <v>0.02244789251947575</v>
       </c>
       <c r="P5">
-        <v>0.02366079079139609</v>
+        <v>0.02244789251947575</v>
       </c>
       <c r="Q5">
-        <v>0.003262956118888889</v>
+        <v>0.008067254691555557</v>
       </c>
       <c r="R5">
-        <v>0.02936660507</v>
+        <v>0.072605292224</v>
       </c>
       <c r="S5">
-        <v>0.008653163132130477</v>
+        <v>0.01258665219579893</v>
       </c>
       <c r="T5">
-        <v>0.008653163132130477</v>
+        <v>0.01258665219579893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,40 +791,40 @@
         <v>0.327734</v>
       </c>
       <c r="I6">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="J6">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1287113333333333</v>
+        <v>0.008656666666666667</v>
       </c>
       <c r="N6">
-        <v>0.386134</v>
+        <v>0.02597</v>
       </c>
       <c r="O6">
-        <v>0.1019612275145911</v>
+        <v>0.006895973038524511</v>
       </c>
       <c r="P6">
-        <v>0.1019612275145911</v>
+        <v>0.006895973038524512</v>
       </c>
       <c r="Q6">
-        <v>0.01406102670622222</v>
+        <v>0.0009456946644444445</v>
       </c>
       <c r="R6">
-        <v>0.126549240356</v>
+        <v>0.00851125198</v>
       </c>
       <c r="S6">
-        <v>0.03728899607010847</v>
+        <v>0.001475487049794606</v>
       </c>
       <c r="T6">
-        <v>0.03728899607010847</v>
+        <v>0.001475487049794606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,45 +853,45 @@
         <v>0.327734</v>
       </c>
       <c r="I7">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="J7">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.103776</v>
+        <v>0.1287113333333333</v>
       </c>
       <c r="N7">
-        <v>3.311328</v>
+        <v>0.386134</v>
       </c>
       <c r="O7">
-        <v>0.8743779816940129</v>
+        <v>0.1025325241916682</v>
       </c>
       <c r="P7">
-        <v>0.8743779816940128</v>
+        <v>0.1025325241916682</v>
       </c>
       <c r="Q7">
-        <v>0.1205816411946667</v>
+        <v>0.01406102670622222</v>
       </c>
       <c r="R7">
-        <v>1.085234770752</v>
+        <v>0.126549240356</v>
       </c>
       <c r="S7">
-        <v>0.3197752510238419</v>
+        <v>0.02193822550964152</v>
       </c>
       <c r="T7">
-        <v>0.3197752510238419</v>
+        <v>0.02193822550964153</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1092446666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.327734</v>
+      </c>
+      <c r="I8">
+        <v>0.2139635757784672</v>
+      </c>
+      <c r="J8">
+        <v>0.2139635757784672</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>0.179619</v>
-      </c>
-      <c r="H8">
-        <v>0.5388569999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.6013089472627045</v>
-      </c>
-      <c r="J8">
-        <v>0.6013089472627045</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.02986833333333333</v>
+        <v>1.089774666666667</v>
       </c>
       <c r="N8">
-        <v>0.08960499999999999</v>
+        <v>3.269324</v>
       </c>
       <c r="O8">
-        <v>0.02366079079139609</v>
+        <v>0.8681236102503316</v>
       </c>
       <c r="P8">
-        <v>0.02366079079139609</v>
+        <v>0.8681236102503316</v>
       </c>
       <c r="Q8">
-        <v>0.005364920164999998</v>
+        <v>0.1190520702017778</v>
       </c>
       <c r="R8">
-        <v>0.04828428148499999</v>
+        <v>1.071468631816</v>
       </c>
       <c r="S8">
-        <v>0.01422744520217747</v>
+        <v>0.1857468318668734</v>
       </c>
       <c r="T8">
-        <v>0.01422744520217747</v>
+        <v>0.1857468318668734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.179619</v>
+        <v>0.1092446666666667</v>
       </c>
       <c r="H9">
-        <v>0.5388569999999999</v>
+        <v>0.327734</v>
       </c>
       <c r="I9">
-        <v>0.6013089472627045</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="J9">
-        <v>0.6013089472627045</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1287113333333333</v>
+        <v>0.02817933333333333</v>
       </c>
       <c r="N9">
-        <v>0.386134</v>
+        <v>0.084538</v>
       </c>
       <c r="O9">
-        <v>0.1019612275145911</v>
+        <v>0.02244789251947575</v>
       </c>
       <c r="P9">
-        <v>0.1019612275145911</v>
+        <v>0.02244789251947575</v>
       </c>
       <c r="Q9">
-        <v>0.02311900098199999</v>
+        <v>0.003078441876888889</v>
       </c>
       <c r="R9">
-        <v>0.2080710088379999</v>
+        <v>0.027705976892</v>
       </c>
       <c r="S9">
-        <v>0.06131019837841187</v>
+        <v>0.004803031352157736</v>
       </c>
       <c r="T9">
-        <v>0.06131019837841187</v>
+        <v>0.004803031352157736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1150486666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.345146</v>
+      </c>
+      <c r="I10">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="J10">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.008656666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.02597</v>
+      </c>
+      <c r="O10">
+        <v>0.006895973038524511</v>
+      </c>
+      <c r="P10">
+        <v>0.006895973038524512</v>
+      </c>
+      <c r="Q10">
+        <v>0.0009959379577777776</v>
+      </c>
+      <c r="R10">
+        <v>0.008963441619999998</v>
+      </c>
+      <c r="S10">
+        <v>0.001553877392301101</v>
+      </c>
+      <c r="T10">
+        <v>0.001553877392301101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1150486666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.345146</v>
+      </c>
+      <c r="I11">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="J11">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1287113333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.386134</v>
+      </c>
+      <c r="O11">
+        <v>0.1025325241916682</v>
+      </c>
+      <c r="P11">
+        <v>0.1025325241916682</v>
+      </c>
+      <c r="Q11">
+        <v>0.01480806728488888</v>
+      </c>
+      <c r="R11">
+        <v>0.133272605564</v>
+      </c>
+      <c r="S11">
+        <v>0.02310376946472057</v>
+      </c>
+      <c r="T11">
+        <v>0.02310376946472057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1150486666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.345146</v>
+      </c>
+      <c r="I12">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="J12">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0.179619</v>
-      </c>
-      <c r="H10">
-        <v>0.5388569999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.6013089472627045</v>
-      </c>
-      <c r="J10">
-        <v>0.6013089472627045</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.103776</v>
-      </c>
-      <c r="N10">
-        <v>3.311328</v>
-      </c>
-      <c r="O10">
-        <v>0.8743779816940129</v>
-      </c>
-      <c r="P10">
-        <v>0.8743779816940128</v>
-      </c>
-      <c r="Q10">
-        <v>0.198259141344</v>
-      </c>
-      <c r="R10">
-        <v>1.784332272096</v>
-      </c>
-      <c r="S10">
-        <v>0.5257713036821152</v>
-      </c>
-      <c r="T10">
-        <v>0.5257713036821151</v>
+      <c r="M12">
+        <v>1.089774666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.269324</v>
+      </c>
+      <c r="O12">
+        <v>0.8681236102503316</v>
+      </c>
+      <c r="P12">
+        <v>0.8681236102503316</v>
+      </c>
+      <c r="Q12">
+        <v>0.1253771223671111</v>
+      </c>
+      <c r="R12">
+        <v>1.128394101304</v>
+      </c>
+      <c r="S12">
+        <v>0.195615273458121</v>
+      </c>
+      <c r="T12">
+        <v>0.1956152734581211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1150486666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.345146</v>
+      </c>
+      <c r="I13">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="J13">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.02817933333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.084538</v>
+      </c>
+      <c r="O13">
+        <v>0.02244789251947575</v>
+      </c>
+      <c r="P13">
+        <v>0.02244789251947575</v>
+      </c>
+      <c r="Q13">
+        <v>0.003241994727555555</v>
+      </c>
+      <c r="R13">
+        <v>0.029177952548</v>
+      </c>
+      <c r="S13">
+        <v>0.005058208971519078</v>
+      </c>
+      <c r="T13">
+        <v>0.005058208971519079</v>
       </c>
     </row>
   </sheetData>
